--- a/replication/results/figureA3_multiple_imputation.xlsx
+++ b/replication/results/figureA3_multiple_imputation.xlsx
@@ -34,64 +34,64 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(0.34)</t>
-  </si>
-  <si>
-    <t>(0.12)</t>
-  </si>
-  <si>
-    <t>(0.65)</t>
-  </si>
-  <si>
-    <t>(0.22)</t>
+    <t>(0.6)</t>
+  </si>
+  <si>
+    <t>(0.37)</t>
   </si>
   <si>
     <t>(0.8)</t>
   </si>
   <si>
-    <t>(0.32)</t>
-  </si>
-  <si>
-    <t>(0.88)</t>
-  </si>
-  <si>
-    <t>(1.18)</t>
-  </si>
-  <si>
-    <t>(0.39)</t>
-  </si>
-  <si>
-    <t>(0.84)</t>
-  </si>
-  <si>
-    <t>(0.37)</t>
-  </si>
-  <si>
-    <t>(0.82)</t>
-  </si>
-  <si>
-    <t>(0.31)</t>
-  </si>
-  <si>
-    <t>(1.0)</t>
-  </si>
-  <si>
-    <t>(0.47)</t>
-  </si>
-  <si>
-    <t>(0.77)</t>
-  </si>
-  <si>
-    <t>(0.41)</t>
-  </si>
-  <si>
-    <t>(0.72)</t>
-  </si>
-  <si>
-    <t>(1.16)</t>
+    <t>(0.48)</t>
+  </si>
+  <si>
+    <t>(0.83)</t>
+  </si>
+  <si>
+    <t>(0.56)</t>
+  </si>
+  <si>
+    <t>(0.93)</t>
+  </si>
+  <si>
+    <t>(0.57)</t>
+  </si>
+  <si>
+    <t>(1.11)</t>
+  </si>
+  <si>
+    <t>(0.63)</t>
+  </si>
+  <si>
+    <t>(0.92)</t>
   </si>
   <si>
     <t>(0.61)</t>
+  </si>
+  <si>
+    <t>(0.91)</t>
+  </si>
+  <si>
+    <t>(1.01)</t>
+  </si>
+  <si>
+    <t>(0.68)</t>
+  </si>
+  <si>
+    <t>(0.89)</t>
+  </si>
+  <si>
+    <t>(0.86)</t>
+  </si>
+  <si>
+    <t>(0.69)</t>
+  </si>
+  <si>
+    <t>(1.02)</t>
+  </si>
+  <si>
+    <t>(0.76)</t>
   </si>
 </sst>
 </file>
@@ -583,13 +583,13 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -656,25 +656,25 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
         <v>25</v>
